--- a/app/webroot/uploads/export/leave.xlsx
+++ b/app/webroot/uploads/export/leave.xlsx
@@ -10,14 +10,14 @@
     <sheet name="leaves" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leaves!$B$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leaves!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Created Date</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Created By</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -419,328 +422,329 @@
     <col min="2" max="2" width="19.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="30.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="215" width="9.140625" style="2"/>
-    <col min="216" max="216" width="17.85546875" style="2" customWidth="1"/>
-    <col min="217" max="217" width="25.5703125" style="2" customWidth="1"/>
-    <col min="218" max="218" width="27.42578125" style="2" customWidth="1"/>
-    <col min="219" max="219" width="21.42578125" style="2" customWidth="1"/>
-    <col min="220" max="471" width="9.140625" style="2"/>
-    <col min="472" max="472" width="17.85546875" style="2" customWidth="1"/>
-    <col min="473" max="473" width="25.5703125" style="2" customWidth="1"/>
-    <col min="474" max="474" width="27.42578125" style="2" customWidth="1"/>
-    <col min="475" max="475" width="21.42578125" style="2" customWidth="1"/>
-    <col min="476" max="727" width="9.140625" style="2"/>
-    <col min="728" max="728" width="17.85546875" style="2" customWidth="1"/>
-    <col min="729" max="729" width="25.5703125" style="2" customWidth="1"/>
-    <col min="730" max="730" width="27.42578125" style="2" customWidth="1"/>
-    <col min="731" max="731" width="21.42578125" style="2" customWidth="1"/>
-    <col min="732" max="983" width="9.140625" style="2"/>
-    <col min="984" max="984" width="17.85546875" style="2" customWidth="1"/>
-    <col min="985" max="985" width="25.5703125" style="2" customWidth="1"/>
-    <col min="986" max="986" width="27.42578125" style="2" customWidth="1"/>
-    <col min="987" max="987" width="21.42578125" style="2" customWidth="1"/>
-    <col min="988" max="1239" width="9.140625" style="2"/>
-    <col min="1240" max="1240" width="17.85546875" style="2" customWidth="1"/>
-    <col min="1241" max="1241" width="25.5703125" style="2" customWidth="1"/>
-    <col min="1242" max="1242" width="27.42578125" style="2" customWidth="1"/>
-    <col min="1243" max="1243" width="21.42578125" style="2" customWidth="1"/>
-    <col min="1244" max="1495" width="9.140625" style="2"/>
-    <col min="1496" max="1496" width="17.85546875" style="2" customWidth="1"/>
-    <col min="1497" max="1497" width="25.5703125" style="2" customWidth="1"/>
-    <col min="1498" max="1498" width="27.42578125" style="2" customWidth="1"/>
-    <col min="1499" max="1499" width="21.42578125" style="2" customWidth="1"/>
-    <col min="1500" max="1751" width="9.140625" style="2"/>
-    <col min="1752" max="1752" width="17.85546875" style="2" customWidth="1"/>
-    <col min="1753" max="1753" width="25.5703125" style="2" customWidth="1"/>
-    <col min="1754" max="1754" width="27.42578125" style="2" customWidth="1"/>
-    <col min="1755" max="1755" width="21.42578125" style="2" customWidth="1"/>
-    <col min="1756" max="2007" width="9.140625" style="2"/>
-    <col min="2008" max="2008" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2009" max="2009" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2010" max="2010" width="27.42578125" style="2" customWidth="1"/>
-    <col min="2011" max="2011" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2012" max="2263" width="9.140625" style="2"/>
-    <col min="2264" max="2264" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2265" max="2265" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2266" max="2266" width="27.42578125" style="2" customWidth="1"/>
-    <col min="2267" max="2267" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2268" max="2519" width="9.140625" style="2"/>
-    <col min="2520" max="2520" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2521" max="2521" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2522" max="2522" width="27.42578125" style="2" customWidth="1"/>
-    <col min="2523" max="2523" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2524" max="2775" width="9.140625" style="2"/>
-    <col min="2776" max="2776" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2777" max="2777" width="25.5703125" style="2" customWidth="1"/>
-    <col min="2778" max="2778" width="27.42578125" style="2" customWidth="1"/>
-    <col min="2779" max="2779" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2780" max="3031" width="9.140625" style="2"/>
-    <col min="3032" max="3032" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3033" max="3033" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3034" max="3034" width="27.42578125" style="2" customWidth="1"/>
-    <col min="3035" max="3035" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3036" max="3287" width="9.140625" style="2"/>
-    <col min="3288" max="3288" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3289" max="3289" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3290" max="3290" width="27.42578125" style="2" customWidth="1"/>
-    <col min="3291" max="3291" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3292" max="3543" width="9.140625" style="2"/>
-    <col min="3544" max="3544" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3545" max="3545" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3546" max="3546" width="27.42578125" style="2" customWidth="1"/>
-    <col min="3547" max="3547" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3548" max="3799" width="9.140625" style="2"/>
-    <col min="3800" max="3800" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3801" max="3801" width="25.5703125" style="2" customWidth="1"/>
-    <col min="3802" max="3802" width="27.42578125" style="2" customWidth="1"/>
-    <col min="3803" max="3803" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3804" max="4055" width="9.140625" style="2"/>
-    <col min="4056" max="4056" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4057" max="4057" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4058" max="4058" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4059" max="4059" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4060" max="4311" width="9.140625" style="2"/>
-    <col min="4312" max="4312" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4313" max="4313" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4314" max="4314" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4315" max="4315" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4316" max="4567" width="9.140625" style="2"/>
-    <col min="4568" max="4568" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4569" max="4569" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4570" max="4570" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4571" max="4571" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4572" max="4823" width="9.140625" style="2"/>
-    <col min="4824" max="4824" width="17.85546875" style="2" customWidth="1"/>
-    <col min="4825" max="4825" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4826" max="4826" width="27.42578125" style="2" customWidth="1"/>
-    <col min="4827" max="4827" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4828" max="5079" width="9.140625" style="2"/>
-    <col min="5080" max="5080" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5081" max="5081" width="25.5703125" style="2" customWidth="1"/>
-    <col min="5082" max="5082" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5083" max="5083" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5084" max="5335" width="9.140625" style="2"/>
-    <col min="5336" max="5336" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5337" max="5337" width="25.5703125" style="2" customWidth="1"/>
-    <col min="5338" max="5338" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5339" max="5339" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5340" max="5591" width="9.140625" style="2"/>
-    <col min="5592" max="5592" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5593" max="5593" width="25.5703125" style="2" customWidth="1"/>
-    <col min="5594" max="5594" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5595" max="5595" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5596" max="5847" width="9.140625" style="2"/>
-    <col min="5848" max="5848" width="17.85546875" style="2" customWidth="1"/>
-    <col min="5849" max="5849" width="25.5703125" style="2" customWidth="1"/>
-    <col min="5850" max="5850" width="27.42578125" style="2" customWidth="1"/>
-    <col min="5851" max="5851" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5852" max="6103" width="9.140625" style="2"/>
-    <col min="6104" max="6104" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6105" max="6105" width="25.5703125" style="2" customWidth="1"/>
-    <col min="6106" max="6106" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6107" max="6107" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6108" max="6359" width="9.140625" style="2"/>
-    <col min="6360" max="6360" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6361" max="6361" width="25.5703125" style="2" customWidth="1"/>
-    <col min="6362" max="6362" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6363" max="6363" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6364" max="6615" width="9.140625" style="2"/>
-    <col min="6616" max="6616" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6617" max="6617" width="25.5703125" style="2" customWidth="1"/>
-    <col min="6618" max="6618" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6619" max="6619" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6620" max="6871" width="9.140625" style="2"/>
-    <col min="6872" max="6872" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6873" max="6873" width="25.5703125" style="2" customWidth="1"/>
-    <col min="6874" max="6874" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6875" max="6875" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6876" max="7127" width="9.140625" style="2"/>
-    <col min="7128" max="7128" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7129" max="7129" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7130" max="7130" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7131" max="7131" width="21.42578125" style="2" customWidth="1"/>
-    <col min="7132" max="7383" width="9.140625" style="2"/>
-    <col min="7384" max="7384" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7385" max="7385" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7386" max="7386" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7387" max="7387" width="21.42578125" style="2" customWidth="1"/>
-    <col min="7388" max="7639" width="9.140625" style="2"/>
-    <col min="7640" max="7640" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7641" max="7641" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7642" max="7642" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7643" max="7643" width="21.42578125" style="2" customWidth="1"/>
-    <col min="7644" max="7895" width="9.140625" style="2"/>
-    <col min="7896" max="7896" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7897" max="7897" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7898" max="7898" width="27.42578125" style="2" customWidth="1"/>
-    <col min="7899" max="7899" width="21.42578125" style="2" customWidth="1"/>
-    <col min="7900" max="8151" width="9.140625" style="2"/>
-    <col min="8152" max="8152" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8153" max="8153" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8154" max="8154" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8155" max="8155" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8156" max="8407" width="9.140625" style="2"/>
-    <col min="8408" max="8408" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8409" max="8409" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8410" max="8410" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8411" max="8411" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8412" max="8663" width="9.140625" style="2"/>
-    <col min="8664" max="8664" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8665" max="8665" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8666" max="8666" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8667" max="8667" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8668" max="8919" width="9.140625" style="2"/>
-    <col min="8920" max="8920" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8921" max="8921" width="25.5703125" style="2" customWidth="1"/>
-    <col min="8922" max="8922" width="27.42578125" style="2" customWidth="1"/>
-    <col min="8923" max="8923" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8924" max="9175" width="9.140625" style="2"/>
-    <col min="9176" max="9176" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9177" max="9177" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9178" max="9178" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9179" max="9179" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9180" max="9431" width="9.140625" style="2"/>
-    <col min="9432" max="9432" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9433" max="9433" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9434" max="9434" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9435" max="9435" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9436" max="9687" width="9.140625" style="2"/>
-    <col min="9688" max="9688" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9689" max="9689" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9690" max="9690" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9691" max="9691" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9692" max="9943" width="9.140625" style="2"/>
-    <col min="9944" max="9944" width="17.85546875" style="2" customWidth="1"/>
-    <col min="9945" max="9945" width="25.5703125" style="2" customWidth="1"/>
-    <col min="9946" max="9946" width="27.42578125" style="2" customWidth="1"/>
-    <col min="9947" max="9947" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9948" max="10199" width="9.140625" style="2"/>
-    <col min="10200" max="10200" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10201" max="10201" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10202" max="10202" width="27.42578125" style="2" customWidth="1"/>
-    <col min="10203" max="10203" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10204" max="10455" width="9.140625" style="2"/>
-    <col min="10456" max="10456" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10457" max="10457" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10458" max="10458" width="27.42578125" style="2" customWidth="1"/>
-    <col min="10459" max="10459" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10460" max="10711" width="9.140625" style="2"/>
-    <col min="10712" max="10712" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10713" max="10713" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10714" max="10714" width="27.42578125" style="2" customWidth="1"/>
-    <col min="10715" max="10715" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10716" max="10967" width="9.140625" style="2"/>
-    <col min="10968" max="10968" width="17.85546875" style="2" customWidth="1"/>
-    <col min="10969" max="10969" width="25.5703125" style="2" customWidth="1"/>
-    <col min="10970" max="10970" width="27.42578125" style="2" customWidth="1"/>
-    <col min="10971" max="10971" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10972" max="11223" width="9.140625" style="2"/>
-    <col min="11224" max="11224" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11225" max="11225" width="25.5703125" style="2" customWidth="1"/>
-    <col min="11226" max="11226" width="27.42578125" style="2" customWidth="1"/>
-    <col min="11227" max="11227" width="21.42578125" style="2" customWidth="1"/>
-    <col min="11228" max="11479" width="9.140625" style="2"/>
-    <col min="11480" max="11480" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11481" max="11481" width="25.5703125" style="2" customWidth="1"/>
-    <col min="11482" max="11482" width="27.42578125" style="2" customWidth="1"/>
-    <col min="11483" max="11483" width="21.42578125" style="2" customWidth="1"/>
-    <col min="11484" max="11735" width="9.140625" style="2"/>
-    <col min="11736" max="11736" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11737" max="11737" width="25.5703125" style="2" customWidth="1"/>
-    <col min="11738" max="11738" width="27.42578125" style="2" customWidth="1"/>
-    <col min="11739" max="11739" width="21.42578125" style="2" customWidth="1"/>
-    <col min="11740" max="11991" width="9.140625" style="2"/>
-    <col min="11992" max="11992" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11993" max="11993" width="25.5703125" style="2" customWidth="1"/>
-    <col min="11994" max="11994" width="27.42578125" style="2" customWidth="1"/>
-    <col min="11995" max="11995" width="21.42578125" style="2" customWidth="1"/>
-    <col min="11996" max="12247" width="9.140625" style="2"/>
-    <col min="12248" max="12248" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12249" max="12249" width="25.5703125" style="2" customWidth="1"/>
-    <col min="12250" max="12250" width="27.42578125" style="2" customWidth="1"/>
-    <col min="12251" max="12251" width="21.42578125" style="2" customWidth="1"/>
-    <col min="12252" max="12503" width="9.140625" style="2"/>
-    <col min="12504" max="12504" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12505" max="12505" width="25.5703125" style="2" customWidth="1"/>
-    <col min="12506" max="12506" width="27.42578125" style="2" customWidth="1"/>
-    <col min="12507" max="12507" width="21.42578125" style="2" customWidth="1"/>
-    <col min="12508" max="12759" width="9.140625" style="2"/>
-    <col min="12760" max="12760" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12761" max="12761" width="25.5703125" style="2" customWidth="1"/>
-    <col min="12762" max="12762" width="27.42578125" style="2" customWidth="1"/>
-    <col min="12763" max="12763" width="21.42578125" style="2" customWidth="1"/>
-    <col min="12764" max="13015" width="9.140625" style="2"/>
-    <col min="13016" max="13016" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13017" max="13017" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13018" max="13018" width="27.42578125" style="2" customWidth="1"/>
-    <col min="13019" max="13019" width="21.42578125" style="2" customWidth="1"/>
-    <col min="13020" max="13271" width="9.140625" style="2"/>
-    <col min="13272" max="13272" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13273" max="13273" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13274" max="13274" width="27.42578125" style="2" customWidth="1"/>
-    <col min="13275" max="13275" width="21.42578125" style="2" customWidth="1"/>
-    <col min="13276" max="13527" width="9.140625" style="2"/>
-    <col min="13528" max="13528" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13529" max="13529" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13530" max="13530" width="27.42578125" style="2" customWidth="1"/>
-    <col min="13531" max="13531" width="21.42578125" style="2" customWidth="1"/>
-    <col min="13532" max="13783" width="9.140625" style="2"/>
-    <col min="13784" max="13784" width="17.85546875" style="2" customWidth="1"/>
-    <col min="13785" max="13785" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13786" max="13786" width="27.42578125" style="2" customWidth="1"/>
-    <col min="13787" max="13787" width="21.42578125" style="2" customWidth="1"/>
-    <col min="13788" max="14039" width="9.140625" style="2"/>
-    <col min="14040" max="14040" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14041" max="14041" width="25.5703125" style="2" customWidth="1"/>
-    <col min="14042" max="14042" width="27.42578125" style="2" customWidth="1"/>
-    <col min="14043" max="14043" width="21.42578125" style="2" customWidth="1"/>
-    <col min="14044" max="14295" width="9.140625" style="2"/>
-    <col min="14296" max="14296" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14297" max="14297" width="25.5703125" style="2" customWidth="1"/>
-    <col min="14298" max="14298" width="27.42578125" style="2" customWidth="1"/>
-    <col min="14299" max="14299" width="21.42578125" style="2" customWidth="1"/>
-    <col min="14300" max="14551" width="9.140625" style="2"/>
-    <col min="14552" max="14552" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14553" max="14553" width="25.5703125" style="2" customWidth="1"/>
-    <col min="14554" max="14554" width="27.42578125" style="2" customWidth="1"/>
-    <col min="14555" max="14555" width="21.42578125" style="2" customWidth="1"/>
-    <col min="14556" max="14807" width="9.140625" style="2"/>
-    <col min="14808" max="14808" width="17.85546875" style="2" customWidth="1"/>
-    <col min="14809" max="14809" width="25.5703125" style="2" customWidth="1"/>
-    <col min="14810" max="14810" width="27.42578125" style="2" customWidth="1"/>
-    <col min="14811" max="14811" width="21.42578125" style="2" customWidth="1"/>
-    <col min="14812" max="15063" width="9.140625" style="2"/>
-    <col min="15064" max="15064" width="17.85546875" style="2" customWidth="1"/>
-    <col min="15065" max="15065" width="25.5703125" style="2" customWidth="1"/>
-    <col min="15066" max="15066" width="27.42578125" style="2" customWidth="1"/>
-    <col min="15067" max="15067" width="21.42578125" style="2" customWidth="1"/>
-    <col min="15068" max="15319" width="9.140625" style="2"/>
-    <col min="15320" max="15320" width="17.85546875" style="2" customWidth="1"/>
-    <col min="15321" max="15321" width="25.5703125" style="2" customWidth="1"/>
-    <col min="15322" max="15322" width="27.42578125" style="2" customWidth="1"/>
-    <col min="15323" max="15323" width="21.42578125" style="2" customWidth="1"/>
-    <col min="15324" max="15575" width="9.140625" style="2"/>
-    <col min="15576" max="15576" width="17.85546875" style="2" customWidth="1"/>
-    <col min="15577" max="15577" width="25.5703125" style="2" customWidth="1"/>
-    <col min="15578" max="15578" width="27.42578125" style="2" customWidth="1"/>
-    <col min="15579" max="15579" width="21.42578125" style="2" customWidth="1"/>
-    <col min="15580" max="15831" width="9.140625" style="2"/>
-    <col min="15832" max="15832" width="17.85546875" style="2" customWidth="1"/>
-    <col min="15833" max="15833" width="25.5703125" style="2" customWidth="1"/>
-    <col min="15834" max="15834" width="27.42578125" style="2" customWidth="1"/>
-    <col min="15835" max="15835" width="21.42578125" style="2" customWidth="1"/>
-    <col min="15836" max="16087" width="9.140625" style="2"/>
-    <col min="16088" max="16088" width="17.85546875" style="2" customWidth="1"/>
-    <col min="16089" max="16089" width="25.5703125" style="2" customWidth="1"/>
-    <col min="16090" max="16090" width="27.42578125" style="2" customWidth="1"/>
-    <col min="16091" max="16091" width="21.42578125" style="2" customWidth="1"/>
-    <col min="16092" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="51.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" customWidth="1"/>
+    <col min="9" max="216" width="9.140625" style="2"/>
+    <col min="217" max="217" width="17.85546875" style="2" customWidth="1"/>
+    <col min="218" max="218" width="25.5703125" style="2" customWidth="1"/>
+    <col min="219" max="219" width="27.42578125" style="2" customWidth="1"/>
+    <col min="220" max="220" width="21.42578125" style="2" customWidth="1"/>
+    <col min="221" max="472" width="9.140625" style="2"/>
+    <col min="473" max="473" width="17.85546875" style="2" customWidth="1"/>
+    <col min="474" max="474" width="25.5703125" style="2" customWidth="1"/>
+    <col min="475" max="475" width="27.42578125" style="2" customWidth="1"/>
+    <col min="476" max="476" width="21.42578125" style="2" customWidth="1"/>
+    <col min="477" max="728" width="9.140625" style="2"/>
+    <col min="729" max="729" width="17.85546875" style="2" customWidth="1"/>
+    <col min="730" max="730" width="25.5703125" style="2" customWidth="1"/>
+    <col min="731" max="731" width="27.42578125" style="2" customWidth="1"/>
+    <col min="732" max="732" width="21.42578125" style="2" customWidth="1"/>
+    <col min="733" max="984" width="9.140625" style="2"/>
+    <col min="985" max="985" width="17.85546875" style="2" customWidth="1"/>
+    <col min="986" max="986" width="25.5703125" style="2" customWidth="1"/>
+    <col min="987" max="987" width="27.42578125" style="2" customWidth="1"/>
+    <col min="988" max="988" width="21.42578125" style="2" customWidth="1"/>
+    <col min="989" max="1240" width="9.140625" style="2"/>
+    <col min="1241" max="1241" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1242" max="1242" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1243" max="1243" width="27.42578125" style="2" customWidth="1"/>
+    <col min="1244" max="1244" width="21.42578125" style="2" customWidth="1"/>
+    <col min="1245" max="1496" width="9.140625" style="2"/>
+    <col min="1497" max="1497" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1498" max="1498" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1499" max="1499" width="27.42578125" style="2" customWidth="1"/>
+    <col min="1500" max="1500" width="21.42578125" style="2" customWidth="1"/>
+    <col min="1501" max="1752" width="9.140625" style="2"/>
+    <col min="1753" max="1753" width="17.85546875" style="2" customWidth="1"/>
+    <col min="1754" max="1754" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1755" max="1755" width="27.42578125" style="2" customWidth="1"/>
+    <col min="1756" max="1756" width="21.42578125" style="2" customWidth="1"/>
+    <col min="1757" max="2008" width="9.140625" style="2"/>
+    <col min="2009" max="2009" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2010" max="2010" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2011" max="2011" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2012" max="2012" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2013" max="2264" width="9.140625" style="2"/>
+    <col min="2265" max="2265" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2266" max="2266" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2267" max="2267" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2268" max="2268" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2269" max="2520" width="9.140625" style="2"/>
+    <col min="2521" max="2521" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2522" max="2522" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2523" max="2523" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2524" max="2524" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2525" max="2776" width="9.140625" style="2"/>
+    <col min="2777" max="2777" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2778" max="2778" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2779" max="2779" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2780" max="2780" width="21.42578125" style="2" customWidth="1"/>
+    <col min="2781" max="3032" width="9.140625" style="2"/>
+    <col min="3033" max="3033" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3034" max="3034" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3035" max="3035" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3036" max="3036" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3037" max="3288" width="9.140625" style="2"/>
+    <col min="3289" max="3289" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3290" max="3290" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3291" max="3291" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3292" max="3292" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3293" max="3544" width="9.140625" style="2"/>
+    <col min="3545" max="3545" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3546" max="3546" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3547" max="3547" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3548" max="3548" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3549" max="3800" width="9.140625" style="2"/>
+    <col min="3801" max="3801" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3802" max="3802" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3803" max="3803" width="27.42578125" style="2" customWidth="1"/>
+    <col min="3804" max="3804" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3805" max="4056" width="9.140625" style="2"/>
+    <col min="4057" max="4057" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4058" max="4058" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4059" max="4059" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4060" max="4060" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4061" max="4312" width="9.140625" style="2"/>
+    <col min="4313" max="4313" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4314" max="4314" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4315" max="4315" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4316" max="4316" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4317" max="4568" width="9.140625" style="2"/>
+    <col min="4569" max="4569" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4570" max="4570" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4571" max="4571" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4572" max="4572" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4573" max="4824" width="9.140625" style="2"/>
+    <col min="4825" max="4825" width="17.85546875" style="2" customWidth="1"/>
+    <col min="4826" max="4826" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4827" max="4827" width="27.42578125" style="2" customWidth="1"/>
+    <col min="4828" max="4828" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4829" max="5080" width="9.140625" style="2"/>
+    <col min="5081" max="5081" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5082" max="5082" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5083" max="5083" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5084" max="5084" width="21.42578125" style="2" customWidth="1"/>
+    <col min="5085" max="5336" width="9.140625" style="2"/>
+    <col min="5337" max="5337" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5338" max="5338" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5339" max="5339" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5340" max="5340" width="21.42578125" style="2" customWidth="1"/>
+    <col min="5341" max="5592" width="9.140625" style="2"/>
+    <col min="5593" max="5593" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5594" max="5594" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5595" max="5595" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5596" max="5596" width="21.42578125" style="2" customWidth="1"/>
+    <col min="5597" max="5848" width="9.140625" style="2"/>
+    <col min="5849" max="5849" width="17.85546875" style="2" customWidth="1"/>
+    <col min="5850" max="5850" width="25.5703125" style="2" customWidth="1"/>
+    <col min="5851" max="5851" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5852" max="5852" width="21.42578125" style="2" customWidth="1"/>
+    <col min="5853" max="6104" width="9.140625" style="2"/>
+    <col min="6105" max="6105" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6106" max="6106" width="25.5703125" style="2" customWidth="1"/>
+    <col min="6107" max="6107" width="27.42578125" style="2" customWidth="1"/>
+    <col min="6108" max="6108" width="21.42578125" style="2" customWidth="1"/>
+    <col min="6109" max="6360" width="9.140625" style="2"/>
+    <col min="6361" max="6361" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6362" max="6362" width="25.5703125" style="2" customWidth="1"/>
+    <col min="6363" max="6363" width="27.42578125" style="2" customWidth="1"/>
+    <col min="6364" max="6364" width="21.42578125" style="2" customWidth="1"/>
+    <col min="6365" max="6616" width="9.140625" style="2"/>
+    <col min="6617" max="6617" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6618" max="6618" width="25.5703125" style="2" customWidth="1"/>
+    <col min="6619" max="6619" width="27.42578125" style="2" customWidth="1"/>
+    <col min="6620" max="6620" width="21.42578125" style="2" customWidth="1"/>
+    <col min="6621" max="6872" width="9.140625" style="2"/>
+    <col min="6873" max="6873" width="17.85546875" style="2" customWidth="1"/>
+    <col min="6874" max="6874" width="25.5703125" style="2" customWidth="1"/>
+    <col min="6875" max="6875" width="27.42578125" style="2" customWidth="1"/>
+    <col min="6876" max="6876" width="21.42578125" style="2" customWidth="1"/>
+    <col min="6877" max="7128" width="9.140625" style="2"/>
+    <col min="7129" max="7129" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7130" max="7130" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7131" max="7131" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7132" max="7132" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7133" max="7384" width="9.140625" style="2"/>
+    <col min="7385" max="7385" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7386" max="7386" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7387" max="7387" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7388" max="7388" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7389" max="7640" width="9.140625" style="2"/>
+    <col min="7641" max="7641" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7642" max="7642" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7643" max="7643" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7644" max="7644" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7645" max="7896" width="9.140625" style="2"/>
+    <col min="7897" max="7897" width="17.85546875" style="2" customWidth="1"/>
+    <col min="7898" max="7898" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7899" max="7899" width="27.42578125" style="2" customWidth="1"/>
+    <col min="7900" max="7900" width="21.42578125" style="2" customWidth="1"/>
+    <col min="7901" max="8152" width="9.140625" style="2"/>
+    <col min="8153" max="8153" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8154" max="8154" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8155" max="8155" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8156" max="8156" width="21.42578125" style="2" customWidth="1"/>
+    <col min="8157" max="8408" width="9.140625" style="2"/>
+    <col min="8409" max="8409" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8410" max="8410" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8411" max="8411" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8412" max="8412" width="21.42578125" style="2" customWidth="1"/>
+    <col min="8413" max="8664" width="9.140625" style="2"/>
+    <col min="8665" max="8665" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8666" max="8666" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8667" max="8667" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8668" max="8668" width="21.42578125" style="2" customWidth="1"/>
+    <col min="8669" max="8920" width="9.140625" style="2"/>
+    <col min="8921" max="8921" width="17.85546875" style="2" customWidth="1"/>
+    <col min="8922" max="8922" width="25.5703125" style="2" customWidth="1"/>
+    <col min="8923" max="8923" width="27.42578125" style="2" customWidth="1"/>
+    <col min="8924" max="8924" width="21.42578125" style="2" customWidth="1"/>
+    <col min="8925" max="9176" width="9.140625" style="2"/>
+    <col min="9177" max="9177" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9178" max="9178" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9179" max="9179" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9180" max="9180" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9181" max="9432" width="9.140625" style="2"/>
+    <col min="9433" max="9433" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9434" max="9434" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9435" max="9435" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9436" max="9436" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9437" max="9688" width="9.140625" style="2"/>
+    <col min="9689" max="9689" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9690" max="9690" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9691" max="9691" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9692" max="9692" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9693" max="9944" width="9.140625" style="2"/>
+    <col min="9945" max="9945" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9946" max="9946" width="25.5703125" style="2" customWidth="1"/>
+    <col min="9947" max="9947" width="27.42578125" style="2" customWidth="1"/>
+    <col min="9948" max="9948" width="21.42578125" style="2" customWidth="1"/>
+    <col min="9949" max="10200" width="9.140625" style="2"/>
+    <col min="10201" max="10201" width="17.85546875" style="2" customWidth="1"/>
+    <col min="10202" max="10202" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10203" max="10203" width="27.42578125" style="2" customWidth="1"/>
+    <col min="10204" max="10204" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10205" max="10456" width="9.140625" style="2"/>
+    <col min="10457" max="10457" width="17.85546875" style="2" customWidth="1"/>
+    <col min="10458" max="10458" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10459" max="10459" width="27.42578125" style="2" customWidth="1"/>
+    <col min="10460" max="10460" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10461" max="10712" width="9.140625" style="2"/>
+    <col min="10713" max="10713" width="17.85546875" style="2" customWidth="1"/>
+    <col min="10714" max="10714" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10715" max="10715" width="27.42578125" style="2" customWidth="1"/>
+    <col min="10716" max="10716" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10717" max="10968" width="9.140625" style="2"/>
+    <col min="10969" max="10969" width="17.85546875" style="2" customWidth="1"/>
+    <col min="10970" max="10970" width="25.5703125" style="2" customWidth="1"/>
+    <col min="10971" max="10971" width="27.42578125" style="2" customWidth="1"/>
+    <col min="10972" max="10972" width="21.42578125" style="2" customWidth="1"/>
+    <col min="10973" max="11224" width="9.140625" style="2"/>
+    <col min="11225" max="11225" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11226" max="11226" width="25.5703125" style="2" customWidth="1"/>
+    <col min="11227" max="11227" width="27.42578125" style="2" customWidth="1"/>
+    <col min="11228" max="11228" width="21.42578125" style="2" customWidth="1"/>
+    <col min="11229" max="11480" width="9.140625" style="2"/>
+    <col min="11481" max="11481" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11482" max="11482" width="25.5703125" style="2" customWidth="1"/>
+    <col min="11483" max="11483" width="27.42578125" style="2" customWidth="1"/>
+    <col min="11484" max="11484" width="21.42578125" style="2" customWidth="1"/>
+    <col min="11485" max="11736" width="9.140625" style="2"/>
+    <col min="11737" max="11737" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11738" max="11738" width="25.5703125" style="2" customWidth="1"/>
+    <col min="11739" max="11739" width="27.42578125" style="2" customWidth="1"/>
+    <col min="11740" max="11740" width="21.42578125" style="2" customWidth="1"/>
+    <col min="11741" max="11992" width="9.140625" style="2"/>
+    <col min="11993" max="11993" width="17.85546875" style="2" customWidth="1"/>
+    <col min="11994" max="11994" width="25.5703125" style="2" customWidth="1"/>
+    <col min="11995" max="11995" width="27.42578125" style="2" customWidth="1"/>
+    <col min="11996" max="11996" width="21.42578125" style="2" customWidth="1"/>
+    <col min="11997" max="12248" width="9.140625" style="2"/>
+    <col min="12249" max="12249" width="17.85546875" style="2" customWidth="1"/>
+    <col min="12250" max="12250" width="25.5703125" style="2" customWidth="1"/>
+    <col min="12251" max="12251" width="27.42578125" style="2" customWidth="1"/>
+    <col min="12252" max="12252" width="21.42578125" style="2" customWidth="1"/>
+    <col min="12253" max="12504" width="9.140625" style="2"/>
+    <col min="12505" max="12505" width="17.85546875" style="2" customWidth="1"/>
+    <col min="12506" max="12506" width="25.5703125" style="2" customWidth="1"/>
+    <col min="12507" max="12507" width="27.42578125" style="2" customWidth="1"/>
+    <col min="12508" max="12508" width="21.42578125" style="2" customWidth="1"/>
+    <col min="12509" max="12760" width="9.140625" style="2"/>
+    <col min="12761" max="12761" width="17.85546875" style="2" customWidth="1"/>
+    <col min="12762" max="12762" width="25.5703125" style="2" customWidth="1"/>
+    <col min="12763" max="12763" width="27.42578125" style="2" customWidth="1"/>
+    <col min="12764" max="12764" width="21.42578125" style="2" customWidth="1"/>
+    <col min="12765" max="13016" width="9.140625" style="2"/>
+    <col min="13017" max="13017" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13018" max="13018" width="25.5703125" style="2" customWidth="1"/>
+    <col min="13019" max="13019" width="27.42578125" style="2" customWidth="1"/>
+    <col min="13020" max="13020" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13021" max="13272" width="9.140625" style="2"/>
+    <col min="13273" max="13273" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13274" max="13274" width="25.5703125" style="2" customWidth="1"/>
+    <col min="13275" max="13275" width="27.42578125" style="2" customWidth="1"/>
+    <col min="13276" max="13276" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13277" max="13528" width="9.140625" style="2"/>
+    <col min="13529" max="13529" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13530" max="13530" width="25.5703125" style="2" customWidth="1"/>
+    <col min="13531" max="13531" width="27.42578125" style="2" customWidth="1"/>
+    <col min="13532" max="13532" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13533" max="13784" width="9.140625" style="2"/>
+    <col min="13785" max="13785" width="17.85546875" style="2" customWidth="1"/>
+    <col min="13786" max="13786" width="25.5703125" style="2" customWidth="1"/>
+    <col min="13787" max="13787" width="27.42578125" style="2" customWidth="1"/>
+    <col min="13788" max="13788" width="21.42578125" style="2" customWidth="1"/>
+    <col min="13789" max="14040" width="9.140625" style="2"/>
+    <col min="14041" max="14041" width="17.85546875" style="2" customWidth="1"/>
+    <col min="14042" max="14042" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14043" max="14043" width="27.42578125" style="2" customWidth="1"/>
+    <col min="14044" max="14044" width="21.42578125" style="2" customWidth="1"/>
+    <col min="14045" max="14296" width="9.140625" style="2"/>
+    <col min="14297" max="14297" width="17.85546875" style="2" customWidth="1"/>
+    <col min="14298" max="14298" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14299" max="14299" width="27.42578125" style="2" customWidth="1"/>
+    <col min="14300" max="14300" width="21.42578125" style="2" customWidth="1"/>
+    <col min="14301" max="14552" width="9.140625" style="2"/>
+    <col min="14553" max="14553" width="17.85546875" style="2" customWidth="1"/>
+    <col min="14554" max="14554" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14555" max="14555" width="27.42578125" style="2" customWidth="1"/>
+    <col min="14556" max="14556" width="21.42578125" style="2" customWidth="1"/>
+    <col min="14557" max="14808" width="9.140625" style="2"/>
+    <col min="14809" max="14809" width="17.85546875" style="2" customWidth="1"/>
+    <col min="14810" max="14810" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14811" max="14811" width="27.42578125" style="2" customWidth="1"/>
+    <col min="14812" max="14812" width="21.42578125" style="2" customWidth="1"/>
+    <col min="14813" max="15064" width="9.140625" style="2"/>
+    <col min="15065" max="15065" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15066" max="15066" width="25.5703125" style="2" customWidth="1"/>
+    <col min="15067" max="15067" width="27.42578125" style="2" customWidth="1"/>
+    <col min="15068" max="15068" width="21.42578125" style="2" customWidth="1"/>
+    <col min="15069" max="15320" width="9.140625" style="2"/>
+    <col min="15321" max="15321" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15322" max="15322" width="25.5703125" style="2" customWidth="1"/>
+    <col min="15323" max="15323" width="27.42578125" style="2" customWidth="1"/>
+    <col min="15324" max="15324" width="21.42578125" style="2" customWidth="1"/>
+    <col min="15325" max="15576" width="9.140625" style="2"/>
+    <col min="15577" max="15577" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15578" max="15578" width="25.5703125" style="2" customWidth="1"/>
+    <col min="15579" max="15579" width="27.42578125" style="2" customWidth="1"/>
+    <col min="15580" max="15580" width="21.42578125" style="2" customWidth="1"/>
+    <col min="15581" max="15832" width="9.140625" style="2"/>
+    <col min="15833" max="15833" width="17.85546875" style="2" customWidth="1"/>
+    <col min="15834" max="15834" width="25.5703125" style="2" customWidth="1"/>
+    <col min="15835" max="15835" width="27.42578125" style="2" customWidth="1"/>
+    <col min="15836" max="15836" width="21.42578125" style="2" customWidth="1"/>
+    <col min="15837" max="16088" width="9.140625" style="2"/>
+    <col min="16089" max="16089" width="17.85546875" style="2" customWidth="1"/>
+    <col min="16090" max="16090" width="25.5703125" style="2" customWidth="1"/>
+    <col min="16091" max="16091" width="27.42578125" style="2" customWidth="1"/>
+    <col min="16092" max="16092" width="21.42578125" style="2" customWidth="1"/>
+    <col min="16093" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -756,10 +760,13 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
